--- a/IntermediateData/Features_Analysis_SMALL_MEDIUM.xlsx
+++ b/IntermediateData/Features_Analysis_SMALL_MEDIUM.xlsx
@@ -4101,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B718" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B738" sqref="B738"/>
+    <sheetView tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/IntermediateData/Features_Analysis_SMALL_MEDIUM.xlsx
+++ b/IntermediateData/Features_Analysis_SMALL_MEDIUM.xlsx
@@ -4099,10 +4099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B321" sqref="B321"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:A731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4155,7 +4156,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4291,7 +4292,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4325,7 +4326,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -4355,7 +4356,7 @@
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -4389,7 +4390,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -4421,7 +4422,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -4721,7 +4722,7 @@
       </c>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -4787,7 +4788,7 @@
       </c>
       <c r="K20" s="8"/>
     </row>
-    <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -4853,7 +4854,7 @@
       </c>
       <c r="K22" s="8"/>
     </row>
-    <row r="23" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -4887,7 +4888,7 @@
       </c>
       <c r="K23" s="8"/>
     </row>
-    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -4921,7 +4922,7 @@
       </c>
       <c r="K24" s="8"/>
     </row>
-    <row r="25" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
@@ -4953,7 +4954,7 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -4987,7 +4988,7 @@
       </c>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -5053,7 +5054,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>28</v>
       </c>
@@ -5119,7 +5120,7 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -5153,7 +5154,7 @@
       </c>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -5187,7 +5188,7 @@
       </c>
       <c r="K32" s="8"/>
     </row>
-    <row r="33" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -5255,7 +5256,7 @@
       </c>
       <c r="K34" s="8"/>
     </row>
-    <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
@@ -5323,7 +5324,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -5357,7 +5358,7 @@
       </c>
       <c r="K37" s="8"/>
     </row>
-    <row r="38" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -5391,7 +5392,7 @@
       </c>
       <c r="K38" s="8"/>
     </row>
-    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -5459,7 +5460,7 @@
       </c>
       <c r="K40" s="8"/>
     </row>
-    <row r="41" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -5493,7 +5494,7 @@
       </c>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -5527,7 +5528,7 @@
       </c>
       <c r="K42" s="8"/>
     </row>
-    <row r="43" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -5559,7 +5560,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
@@ -5589,7 +5590,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
@@ -5619,7 +5620,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
@@ -5649,7 +5650,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
@@ -5679,7 +5680,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -5709,7 +5710,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -5739,7 +5740,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
@@ -5769,7 +5770,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -5799,7 +5800,7 @@
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
@@ -5829,7 +5830,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -5859,7 +5860,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
@@ -5889,7 +5890,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
@@ -5919,7 +5920,7 @@
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
@@ -5949,7 +5950,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
@@ -5979,7 +5980,7 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>56</v>
       </c>
@@ -6009,7 +6010,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -6041,7 +6042,7 @@
       </c>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>58</v>
       </c>
@@ -6071,7 +6072,7 @@
       </c>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -6103,7 +6104,7 @@
       </c>
       <c r="K61" s="8"/>
     </row>
-    <row r="62" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>60</v>
       </c>
@@ -6133,7 +6134,7 @@
       </c>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -6167,7 +6168,7 @@
       </c>
       <c r="K63" s="8"/>
     </row>
-    <row r="64" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -6201,7 +6202,7 @@
       </c>
       <c r="K64" s="8"/>
     </row>
-    <row r="65" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -6231,7 +6232,7 @@
       </c>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
@@ -6261,7 +6262,7 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -6291,7 +6292,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
@@ -6321,7 +6322,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
@@ -6351,7 +6352,7 @@
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
@@ -6541,7 +6542,7 @@
       </c>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
@@ -6571,7 +6572,7 @@
       </c>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -6601,7 +6602,7 @@
       </c>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
@@ -6631,7 +6632,7 @@
       </c>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -6661,7 +6662,7 @@
       </c>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -6691,7 +6692,7 @@
       </c>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
@@ -6721,7 +6722,7 @@
       </c>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
@@ -6749,7 +6750,7 @@
       </c>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
@@ -6777,7 +6778,7 @@
       </c>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
@@ -6805,7 +6806,7 @@
       </c>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
@@ -6833,7 +6834,7 @@
       </c>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -6861,7 +6862,7 @@
       </c>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
@@ -6889,7 +6890,7 @@
       </c>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
@@ -6917,7 +6918,7 @@
       </c>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -6945,7 +6946,7 @@
       </c>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
@@ -6973,7 +6974,7 @@
       </c>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
@@ -7001,7 +7002,7 @@
       </c>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
@@ -7031,7 +7032,7 @@
       </c>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -7061,7 +7062,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
@@ -7089,7 +7090,7 @@
       </c>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
@@ -7117,7 +7118,7 @@
       </c>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
@@ -7145,7 +7146,7 @@
       </c>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -7173,7 +7174,7 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
@@ -7201,7 +7202,7 @@
       </c>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
@@ -7229,7 +7230,7 @@
       </c>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
@@ -7257,7 +7258,7 @@
       </c>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>100</v>
       </c>
@@ -7323,7 +7324,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -7357,7 +7358,7 @@
       </c>
       <c r="K103" s="8"/>
     </row>
-    <row r="104" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>102</v>
       </c>
@@ -7389,7 +7390,7 @@
       </c>
       <c r="K104" s="8"/>
     </row>
-    <row r="105" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -7423,7 +7424,7 @@
       </c>
       <c r="K105" s="8"/>
     </row>
-    <row r="106" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>104</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -7491,7 +7492,7 @@
       </c>
       <c r="K107" s="8"/>
     </row>
-    <row r="108" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -7521,7 +7522,7 @@
       </c>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>107</v>
       </c>
@@ -7551,7 +7552,7 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -7585,7 +7586,7 @@
       </c>
       <c r="K110" s="8"/>
     </row>
-    <row r="111" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -7615,7 +7616,7 @@
       </c>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>110</v>
       </c>
@@ -7645,7 +7646,7 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -7677,7 +7678,7 @@
       </c>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -7709,7 +7710,7 @@
       </c>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -7741,7 +7742,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
@@ -7775,7 +7776,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -7809,7 +7810,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -7843,7 +7844,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>118</v>
       </c>
@@ -7907,7 +7908,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -7941,7 +7942,7 @@
       </c>
       <c r="K121" s="8"/>
     </row>
-    <row r="122" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -7971,7 +7972,7 @@
       </c>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
@@ -8001,7 +8002,7 @@
       </c>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
@@ -8031,7 +8032,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
@@ -8061,7 +8062,7 @@
       </c>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
@@ -8091,7 +8092,7 @@
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
@@ -8121,7 +8122,7 @@
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -8151,7 +8152,7 @@
       </c>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
@@ -8181,7 +8182,7 @@
       </c>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
@@ -8211,7 +8212,7 @@
       </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
@@ -8241,7 +8242,7 @@
       </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
@@ -8271,7 +8272,7 @@
       </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
@@ -8301,7 +8302,7 @@
       </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
@@ -8331,7 +8332,7 @@
       </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -8361,7 +8362,7 @@
       </c>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
@@ -8391,7 +8392,7 @@
       </c>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
@@ -8421,7 +8422,7 @@
       </c>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
@@ -8451,7 +8452,7 @@
       </c>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
@@ -8481,7 +8482,7 @@
       </c>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
@@ -8511,7 +8512,7 @@
       </c>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
@@ -8731,7 +8732,7 @@
       </c>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
@@ -8761,7 +8762,7 @@
       </c>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
@@ -8791,7 +8792,7 @@
       </c>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
@@ -8821,7 +8822,7 @@
       </c>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
@@ -8851,7 +8852,7 @@
       </c>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
@@ -8881,7 +8882,7 @@
       </c>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
@@ -8911,7 +8912,7 @@
       </c>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
@@ -8941,7 +8942,7 @@
       </c>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
@@ -8971,7 +8972,7 @@
       </c>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>154</v>
       </c>
@@ -9001,7 +9002,7 @@
       </c>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>155</v>
       </c>
@@ -9031,7 +9032,7 @@
       </c>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>156</v>
       </c>
@@ -9061,7 +9062,7 @@
       </c>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>157</v>
       </c>
@@ -9091,7 +9092,7 @@
       </c>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>158</v>
       </c>
@@ -9121,7 +9122,7 @@
       </c>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
@@ -9151,7 +9152,7 @@
       </c>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
@@ -9183,7 +9184,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
@@ -9213,7 +9214,7 @@
       </c>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
@@ -9243,7 +9244,7 @@
       </c>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
@@ -9273,7 +9274,7 @@
       </c>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
@@ -9303,7 +9304,7 @@
       </c>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -9333,7 +9334,7 @@
       </c>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -9363,7 +9364,7 @@
       </c>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
@@ -9393,7 +9394,7 @@
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
@@ -9423,7 +9424,7 @@
       </c>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>169</v>
       </c>
@@ -9453,7 +9454,7 @@
       </c>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>170</v>
       </c>
@@ -9483,7 +9484,7 @@
       </c>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
@@ -9513,7 +9514,7 @@
       </c>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
@@ -9543,7 +9544,7 @@
       </c>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
@@ -9573,7 +9574,7 @@
       </c>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
@@ -9603,7 +9604,7 @@
       </c>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
@@ -9633,7 +9634,7 @@
       </c>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5" t="s">
         <v>176</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>177</v>
       </c>
@@ -9699,7 +9700,7 @@
       </c>
       <c r="K179" s="8"/>
     </row>
-    <row r="180" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>178</v>
       </c>
@@ -9731,7 +9732,7 @@
       </c>
       <c r="K180" s="8"/>
     </row>
-    <row r="181" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>179</v>
       </c>
@@ -9765,7 +9766,7 @@
       </c>
       <c r="K181" s="8"/>
     </row>
-    <row r="182" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>180</v>
       </c>
@@ -9795,7 +9796,7 @@
       </c>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
@@ -9825,7 +9826,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
@@ -9853,7 +9854,7 @@
       </c>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
@@ -9911,7 +9912,7 @@
       </c>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
@@ -9941,7 +9942,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
@@ -9975,7 +9976,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
@@ -10043,7 +10044,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
@@ -10111,7 +10112,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
@@ -10145,7 +10146,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -10179,7 +10180,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -10213,7 +10214,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
@@ -10451,7 +10452,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
@@ -10485,7 +10486,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
@@ -10553,7 +10554,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
@@ -10587,7 +10588,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
@@ -10655,7 +10656,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -10689,7 +10690,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>207</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
@@ -10757,7 +10758,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
@@ -10791,7 +10792,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
@@ -10825,7 +10826,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
@@ -10859,7 +10860,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
@@ -10995,7 +10996,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>217</v>
       </c>
@@ -11063,7 +11064,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>219</v>
       </c>
@@ -11097,7 +11098,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
@@ -11131,7 +11132,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
@@ -11199,7 +11200,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>223</v>
       </c>
@@ -11233,7 +11234,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>224</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
@@ -11301,7 +11302,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
@@ -11403,7 +11404,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
@@ -11437,7 +11438,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>230</v>
       </c>
@@ -11465,7 +11466,7 @@
       </c>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
@@ -11493,7 +11494,7 @@
       </c>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
@@ -11521,7 +11522,7 @@
       </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
@@ -11549,7 +11550,7 @@
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
@@ -11577,7 +11578,7 @@
       </c>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
@@ -11605,7 +11606,7 @@
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
@@ -11633,7 +11634,7 @@
       </c>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
@@ -11661,7 +11662,7 @@
       </c>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
@@ -11689,7 +11690,7 @@
       </c>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5" t="s">
         <v>239</v>
       </c>
@@ -11717,7 +11718,7 @@
       </c>
       <c r="K241" s="5"/>
     </row>
-    <row r="242" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="8" t="s">
         <v>240</v>
       </c>
@@ -11751,7 +11752,7 @@
       </c>
       <c r="K242" s="8"/>
     </row>
-    <row r="243" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="8" t="s">
         <v>241</v>
       </c>
@@ -11785,7 +11786,7 @@
       </c>
       <c r="K243" s="8"/>
     </row>
-    <row r="244" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>242</v>
       </c>
@@ -11819,7 +11820,7 @@
       </c>
       <c r="K244" s="8"/>
     </row>
-    <row r="245" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>243</v>
       </c>
@@ -11853,7 +11854,7 @@
       </c>
       <c r="K245" s="8"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>244</v>
       </c>
@@ -11945,7 +11946,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
@@ -11973,7 +11974,7 @@
       </c>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
@@ -12001,7 +12002,7 @@
       </c>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
@@ -12029,7 +12030,7 @@
       </c>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
@@ -12057,7 +12058,7 @@
       </c>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
@@ -13555,7 +13556,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
@@ -13585,7 +13586,7 @@
       </c>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
@@ -13615,7 +13616,7 @@
       </c>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>303</v>
       </c>
@@ -13645,7 +13646,7 @@
       </c>
       <c r="K305" s="5"/>
     </row>
-    <row r="306" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="8" t="s">
         <v>304</v>
       </c>
@@ -13679,7 +13680,7 @@
       </c>
       <c r="K306" s="8"/>
     </row>
-    <row r="307" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>305</v>
       </c>
@@ -13709,7 +13710,7 @@
       </c>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>306</v>
       </c>
@@ -13739,7 +13740,7 @@
       </c>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>307</v>
       </c>
@@ -13769,7 +13770,7 @@
       </c>
       <c r="K309" s="5"/>
     </row>
-    <row r="310" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="8" t="s">
         <v>308</v>
       </c>
@@ -13803,7 +13804,7 @@
       </c>
       <c r="K310" s="8"/>
     </row>
-    <row r="311" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>309</v>
       </c>
@@ -13833,7 +13834,7 @@
       </c>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
@@ -13863,7 +13864,7 @@
       </c>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
@@ -13893,7 +13894,7 @@
       </c>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>312</v>
       </c>
@@ -13923,7 +13924,7 @@
       </c>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>313</v>
       </c>
@@ -13953,7 +13954,7 @@
       </c>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>314</v>
       </c>
@@ -13983,7 +13984,7 @@
       </c>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>315</v>
       </c>
@@ -14013,7 +14014,7 @@
       </c>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>316</v>
       </c>
@@ -14043,7 +14044,7 @@
       </c>
       <c r="K318" s="5"/>
     </row>
-    <row r="319" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="8" t="s">
         <v>317</v>
       </c>
@@ -14075,7 +14076,7 @@
       </c>
       <c r="K319" s="8"/>
     </row>
-    <row r="320" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>318</v>
       </c>
@@ -14103,7 +14104,7 @@
       </c>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>319</v>
       </c>
@@ -14131,7 +14132,7 @@
       </c>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>320</v>
       </c>
@@ -14159,7 +14160,7 @@
       </c>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>321</v>
       </c>
@@ -14187,7 +14188,7 @@
       </c>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>322</v>
       </c>
@@ -14215,7 +14216,7 @@
       </c>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>323</v>
       </c>
@@ -14243,7 +14244,7 @@
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>324</v>
       </c>
@@ -14271,7 +14272,7 @@
       </c>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>325</v>
       </c>
@@ -14299,7 +14300,7 @@
       </c>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>326</v>
       </c>
@@ -14327,7 +14328,7 @@
       </c>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>327</v>
       </c>
@@ -14355,7 +14356,7 @@
       </c>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>328</v>
       </c>
@@ -14383,7 +14384,7 @@
       </c>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>329</v>
       </c>
@@ -14411,7 +14412,7 @@
       </c>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>330</v>
       </c>
@@ -14439,7 +14440,7 @@
       </c>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>331</v>
       </c>
@@ -14467,7 +14468,7 @@
       </c>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>332</v>
       </c>
@@ -14495,7 +14496,7 @@
       </c>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>333</v>
       </c>
@@ -14523,7 +14524,7 @@
       </c>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>334</v>
       </c>
@@ -14551,7 +14552,7 @@
       </c>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>335</v>
       </c>
@@ -14579,7 +14580,7 @@
       </c>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>336</v>
       </c>
@@ -14607,7 +14608,7 @@
       </c>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>337</v>
       </c>
@@ -14635,7 +14636,7 @@
       </c>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>338</v>
       </c>
@@ -14663,7 +14664,7 @@
       </c>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>339</v>
       </c>
@@ -14691,7 +14692,7 @@
       </c>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>340</v>
       </c>
@@ -14719,7 +14720,7 @@
       </c>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>341</v>
       </c>
@@ -14747,7 +14748,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>342</v>
       </c>
@@ -14775,7 +14776,7 @@
       </c>
       <c r="K344" s="1"/>
     </row>
-    <row r="345" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>343</v>
       </c>
@@ -14803,7 +14804,7 @@
       </c>
       <c r="K345" s="1"/>
     </row>
-    <row r="346" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>344</v>
       </c>
@@ -14831,7 +14832,7 @@
       </c>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>345</v>
       </c>
@@ -14859,7 +14860,7 @@
       </c>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>346</v>
       </c>
@@ -14887,7 +14888,7 @@
       </c>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>347</v>
       </c>
@@ -14915,7 +14916,7 @@
       </c>
       <c r="K349" s="1"/>
     </row>
-    <row r="350" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>348</v>
       </c>
@@ -14943,7 +14944,7 @@
       </c>
       <c r="K350" s="1"/>
     </row>
-    <row r="351" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>349</v>
       </c>
@@ -14971,7 +14972,7 @@
       </c>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>350</v>
       </c>
@@ -14999,7 +15000,7 @@
       </c>
       <c r="K352" s="1"/>
     </row>
-    <row r="353" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>351</v>
       </c>
@@ -15027,7 +15028,7 @@
       </c>
       <c r="K353" s="1"/>
     </row>
-    <row r="354" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>352</v>
       </c>
@@ -15055,7 +15056,7 @@
       </c>
       <c r="K354" s="1"/>
     </row>
-    <row r="355" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>353</v>
       </c>
@@ -15083,7 +15084,7 @@
       </c>
       <c r="K355" s="1"/>
     </row>
-    <row r="356" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>354</v>
       </c>
@@ -15111,7 +15112,7 @@
       </c>
       <c r="K356" s="1"/>
     </row>
-    <row r="357" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>355</v>
       </c>
@@ -15139,7 +15140,7 @@
       </c>
       <c r="K357" s="1"/>
     </row>
-    <row r="358" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>356</v>
       </c>
@@ -15167,7 +15168,7 @@
       </c>
       <c r="K358" s="1"/>
     </row>
-    <row r="359" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>357</v>
       </c>
@@ -15195,7 +15196,7 @@
       </c>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>358</v>
       </c>
@@ -15223,7 +15224,7 @@
       </c>
       <c r="K360" s="1"/>
     </row>
-    <row r="361" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>359</v>
       </c>
@@ -15251,7 +15252,7 @@
       </c>
       <c r="K361" s="1"/>
     </row>
-    <row r="362" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>360</v>
       </c>
@@ -15279,7 +15280,7 @@
       </c>
       <c r="K362" s="1"/>
     </row>
-    <row r="363" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>361</v>
       </c>
@@ -15307,7 +15308,7 @@
       </c>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>362</v>
       </c>
@@ -15335,7 +15336,7 @@
       </c>
       <c r="K364" s="1"/>
     </row>
-    <row r="365" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>363</v>
       </c>
@@ -15363,7 +15364,7 @@
       </c>
       <c r="K365" s="1"/>
     </row>
-    <row r="366" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>364</v>
       </c>
@@ -15391,7 +15392,7 @@
       </c>
       <c r="K366" s="1"/>
     </row>
-    <row r="367" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>365</v>
       </c>
@@ -15419,7 +15420,7 @@
       </c>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>366</v>
       </c>
@@ -15447,7 +15448,7 @@
       </c>
       <c r="K368" s="1"/>
     </row>
-    <row r="369" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>367</v>
       </c>
@@ -15475,7 +15476,7 @@
       </c>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>368</v>
       </c>
@@ -15503,7 +15504,7 @@
       </c>
       <c r="K370" s="1"/>
     </row>
-    <row r="371" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>369</v>
       </c>
@@ -15531,7 +15532,7 @@
       </c>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>370</v>
       </c>
@@ -15559,7 +15560,7 @@
       </c>
       <c r="K372" s="1"/>
     </row>
-    <row r="373" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>371</v>
       </c>
@@ -15587,7 +15588,7 @@
       </c>
       <c r="K373" s="1"/>
     </row>
-    <row r="374" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>372</v>
       </c>
@@ -15615,7 +15616,7 @@
       </c>
       <c r="K374" s="1"/>
     </row>
-    <row r="375" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>373</v>
       </c>
@@ -15643,7 +15644,7 @@
       </c>
       <c r="K375" s="1"/>
     </row>
-    <row r="376" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>374</v>
       </c>
@@ -15671,7 +15672,7 @@
       </c>
       <c r="K376" s="1"/>
     </row>
-    <row r="377" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>375</v>
       </c>
@@ -15699,7 +15700,7 @@
       </c>
       <c r="K377" s="1"/>
     </row>
-    <row r="378" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>376</v>
       </c>
@@ -15727,7 +15728,7 @@
       </c>
       <c r="K378" s="1"/>
     </row>
-    <row r="379" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>377</v>
       </c>
@@ -15755,7 +15756,7 @@
       </c>
       <c r="K379" s="1"/>
     </row>
-    <row r="380" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>378</v>
       </c>
@@ -15783,7 +15784,7 @@
       </c>
       <c r="K380" s="1"/>
     </row>
-    <row r="381" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>379</v>
       </c>
@@ -15811,7 +15812,7 @@
       </c>
       <c r="K381" s="1"/>
     </row>
-    <row r="382" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>380</v>
       </c>
@@ -15839,7 +15840,7 @@
       </c>
       <c r="K382" s="1"/>
     </row>
-    <row r="383" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>381</v>
       </c>
@@ -15867,7 +15868,7 @@
       </c>
       <c r="K383" s="1"/>
     </row>
-    <row r="384" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>382</v>
       </c>
@@ -15895,7 +15896,7 @@
       </c>
       <c r="K384" s="1"/>
     </row>
-    <row r="385" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>383</v>
       </c>
@@ -15923,7 +15924,7 @@
       </c>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>384</v>
       </c>
@@ -15951,7 +15952,7 @@
       </c>
       <c r="K386" s="1"/>
     </row>
-    <row r="387" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>385</v>
       </c>
@@ -15979,7 +15980,7 @@
       </c>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>386</v>
       </c>
@@ -16007,7 +16008,7 @@
       </c>
       <c r="K388" s="1"/>
     </row>
-    <row r="389" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>387</v>
       </c>
@@ -16035,7 +16036,7 @@
       </c>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>388</v>
       </c>
@@ -16063,7 +16064,7 @@
       </c>
       <c r="K390" s="1"/>
     </row>
-    <row r="391" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>389</v>
       </c>
@@ -16091,7 +16092,7 @@
       </c>
       <c r="K391" s="1"/>
     </row>
-    <row r="392" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>390</v>
       </c>
@@ -16119,7 +16120,7 @@
       </c>
       <c r="K392" s="1"/>
     </row>
-    <row r="393" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>391</v>
       </c>
@@ -16147,7 +16148,7 @@
       </c>
       <c r="K393" s="1"/>
     </row>
-    <row r="394" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>392</v>
       </c>
@@ -16175,7 +16176,7 @@
       </c>
       <c r="K394" s="1"/>
     </row>
-    <row r="395" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>393</v>
       </c>
@@ -16203,7 +16204,7 @@
       </c>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>394</v>
       </c>
@@ -16231,7 +16232,7 @@
       </c>
       <c r="K396" s="1"/>
     </row>
-    <row r="397" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>395</v>
       </c>
@@ -16259,7 +16260,7 @@
       </c>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>396</v>
       </c>
@@ -16287,7 +16288,7 @@
       </c>
       <c r="K398" s="1"/>
     </row>
-    <row r="399" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>397</v>
       </c>
@@ -16315,7 +16316,7 @@
       </c>
       <c r="K399" s="1"/>
     </row>
-    <row r="400" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>398</v>
       </c>
@@ -16343,7 +16344,7 @@
       </c>
       <c r="K400" s="1"/>
     </row>
-    <row r="401" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>399</v>
       </c>
@@ -16371,7 +16372,7 @@
       </c>
       <c r="K401" s="1"/>
     </row>
-    <row r="402" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>400</v>
       </c>
@@ -16399,7 +16400,7 @@
       </c>
       <c r="K402" s="1"/>
     </row>
-    <row r="403" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>401</v>
       </c>
@@ -16427,7 +16428,7 @@
       </c>
       <c r="K403" s="1"/>
     </row>
-    <row r="404" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>402</v>
       </c>
@@ -16455,7 +16456,7 @@
       </c>
       <c r="K404" s="1"/>
     </row>
-    <row r="405" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>403</v>
       </c>
@@ -16483,7 +16484,7 @@
       </c>
       <c r="K405" s="1"/>
     </row>
-    <row r="406" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>404</v>
       </c>
@@ -16511,7 +16512,7 @@
       </c>
       <c r="K406" s="1"/>
     </row>
-    <row r="407" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>405</v>
       </c>
@@ -16539,7 +16540,7 @@
       </c>
       <c r="K407" s="1"/>
     </row>
-    <row r="408" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>406</v>
       </c>
@@ -16567,7 +16568,7 @@
       </c>
       <c r="K408" s="1"/>
     </row>
-    <row r="409" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>407</v>
       </c>
@@ -16595,7 +16596,7 @@
       </c>
       <c r="K409" s="1"/>
     </row>
-    <row r="410" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>408</v>
       </c>
@@ -16623,7 +16624,7 @@
       </c>
       <c r="K410" s="1"/>
     </row>
-    <row r="411" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>409</v>
       </c>
@@ -16651,7 +16652,7 @@
       </c>
       <c r="K411" s="1"/>
     </row>
-    <row r="412" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>410</v>
       </c>
@@ -16679,7 +16680,7 @@
       </c>
       <c r="K412" s="1"/>
     </row>
-    <row r="413" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>411</v>
       </c>
@@ -16707,7 +16708,7 @@
       </c>
       <c r="K413" s="1"/>
     </row>
-    <row r="414" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>412</v>
       </c>
@@ -16735,7 +16736,7 @@
       </c>
       <c r="K414" s="1"/>
     </row>
-    <row r="415" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>413</v>
       </c>
@@ -16763,7 +16764,7 @@
       </c>
       <c r="K415" s="1"/>
     </row>
-    <row r="416" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>414</v>
       </c>
@@ -16791,7 +16792,7 @@
       </c>
       <c r="K416" s="1"/>
     </row>
-    <row r="417" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>415</v>
       </c>
@@ -16819,7 +16820,7 @@
       </c>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>416</v>
       </c>
@@ -16847,7 +16848,7 @@
       </c>
       <c r="K418" s="1"/>
     </row>
-    <row r="419" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>417</v>
       </c>
@@ -16875,7 +16876,7 @@
       </c>
       <c r="K419" s="1"/>
     </row>
-    <row r="420" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>418</v>
       </c>
@@ -16903,7 +16904,7 @@
       </c>
       <c r="K420" s="1"/>
     </row>
-    <row r="421" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>419</v>
       </c>
@@ -16931,7 +16932,7 @@
       </c>
       <c r="K421" s="1"/>
     </row>
-    <row r="422" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>420</v>
       </c>
@@ -16959,7 +16960,7 @@
       </c>
       <c r="K422" s="1"/>
     </row>
-    <row r="423" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>421</v>
       </c>
@@ -16987,7 +16988,7 @@
       </c>
       <c r="K423" s="1"/>
     </row>
-    <row r="424" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>422</v>
       </c>
@@ -17015,7 +17016,7 @@
       </c>
       <c r="K424" s="1"/>
     </row>
-    <row r="425" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>423</v>
       </c>
@@ -17043,7 +17044,7 @@
       </c>
       <c r="K425" s="1"/>
     </row>
-    <row r="426" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>424</v>
       </c>
@@ -17071,7 +17072,7 @@
       </c>
       <c r="K426" s="1"/>
     </row>
-    <row r="427" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>425</v>
       </c>
@@ -17099,7 +17100,7 @@
       </c>
       <c r="K427" s="1"/>
     </row>
-    <row r="428" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>426</v>
       </c>
@@ -17127,7 +17128,7 @@
       </c>
       <c r="K428" s="1"/>
     </row>
-    <row r="429" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>427</v>
       </c>
@@ -17155,7 +17156,7 @@
       </c>
       <c r="K429" s="1"/>
     </row>
-    <row r="430" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>428</v>
       </c>
@@ -17183,7 +17184,7 @@
       </c>
       <c r="K430" s="1"/>
     </row>
-    <row r="431" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>429</v>
       </c>
@@ -17211,7 +17212,7 @@
       </c>
       <c r="K431" s="1"/>
     </row>
-    <row r="432" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>430</v>
       </c>
@@ -17239,7 +17240,7 @@
       </c>
       <c r="K432" s="1"/>
     </row>
-    <row r="433" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>431</v>
       </c>
@@ -17271,7 +17272,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>432</v>
       </c>
@@ -17299,7 +17300,7 @@
       </c>
       <c r="K434" s="1"/>
     </row>
-    <row r="435" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
         <v>433</v>
       </c>
@@ -17327,7 +17328,7 @@
       </c>
       <c r="K435" s="1"/>
     </row>
-    <row r="436" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>434</v>
       </c>
@@ -17355,7 +17356,7 @@
       </c>
       <c r="K436" s="1"/>
     </row>
-    <row r="437" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>435</v>
       </c>
@@ -17383,7 +17384,7 @@
       </c>
       <c r="K437" s="1"/>
     </row>
-    <row r="438" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>436</v>
       </c>
@@ -17411,7 +17412,7 @@
       </c>
       <c r="K438" s="1"/>
     </row>
-    <row r="439" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
         <v>437</v>
       </c>
@@ -17439,7 +17440,7 @@
       </c>
       <c r="K439" s="1"/>
     </row>
-    <row r="440" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>438</v>
       </c>
@@ -17467,7 +17468,7 @@
       </c>
       <c r="K440" s="1"/>
     </row>
-    <row r="441" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>439</v>
       </c>
@@ -17495,7 +17496,7 @@
       </c>
       <c r="K441" s="1"/>
     </row>
-    <row r="442" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>440</v>
       </c>
@@ -17523,7 +17524,7 @@
       </c>
       <c r="K442" s="1"/>
     </row>
-    <row r="443" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
         <v>441</v>
       </c>
@@ -17551,7 +17552,7 @@
       </c>
       <c r="K443" s="1"/>
     </row>
-    <row r="444" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>442</v>
       </c>
@@ -17579,7 +17580,7 @@
       </c>
       <c r="K444" s="1"/>
     </row>
-    <row r="445" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>443</v>
       </c>
@@ -17607,7 +17608,7 @@
       </c>
       <c r="K445" s="1"/>
     </row>
-    <row r="446" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>444</v>
       </c>
@@ -17635,7 +17636,7 @@
       </c>
       <c r="K446" s="1"/>
     </row>
-    <row r="447" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>445</v>
       </c>
@@ -17663,7 +17664,7 @@
       </c>
       <c r="K447" s="1"/>
     </row>
-    <row r="448" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
         <v>446</v>
       </c>
@@ -17691,7 +17692,7 @@
       </c>
       <c r="K448" s="1"/>
     </row>
-    <row r="449" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
         <v>447</v>
       </c>
@@ -17719,7 +17720,7 @@
       </c>
       <c r="K449" s="1"/>
     </row>
-    <row r="450" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
         <v>448</v>
       </c>
@@ -17747,7 +17748,7 @@
       </c>
       <c r="K450" s="1"/>
     </row>
-    <row r="451" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>449</v>
       </c>
@@ -17775,7 +17776,7 @@
       </c>
       <c r="K451" s="1"/>
     </row>
-    <row r="452" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>450</v>
       </c>
@@ -17803,7 +17804,7 @@
       </c>
       <c r="K452" s="1"/>
     </row>
-    <row r="453" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>451</v>
       </c>
@@ -17831,7 +17832,7 @@
       </c>
       <c r="K453" s="1"/>
     </row>
-    <row r="454" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>452</v>
       </c>
@@ -17859,7 +17860,7 @@
       </c>
       <c r="K454" s="1"/>
     </row>
-    <row r="455" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>453</v>
       </c>
@@ -17887,7 +17888,7 @@
       </c>
       <c r="K455" s="1"/>
     </row>
-    <row r="456" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
         <v>454</v>
       </c>
@@ -17915,7 +17916,7 @@
       </c>
       <c r="K456" s="1"/>
     </row>
-    <row r="457" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>455</v>
       </c>
@@ -17943,7 +17944,7 @@
       </c>
       <c r="K457" s="1"/>
     </row>
-    <row r="458" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>456</v>
       </c>
@@ -17971,7 +17972,7 @@
       </c>
       <c r="K458" s="1"/>
     </row>
-    <row r="459" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>457</v>
       </c>
@@ -17999,7 +18000,7 @@
       </c>
       <c r="K459" s="1"/>
     </row>
-    <row r="460" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>458</v>
       </c>
@@ -18027,7 +18028,7 @@
       </c>
       <c r="K460" s="1"/>
     </row>
-    <row r="461" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>459</v>
       </c>
@@ -18055,7 +18056,7 @@
       </c>
       <c r="K461" s="1"/>
     </row>
-    <row r="462" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>460</v>
       </c>
@@ -18083,7 +18084,7 @@
       </c>
       <c r="K462" s="1"/>
     </row>
-    <row r="463" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>461</v>
       </c>
@@ -18111,7 +18112,7 @@
       </c>
       <c r="K463" s="1"/>
     </row>
-    <row r="464" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>462</v>
       </c>
@@ -18139,7 +18140,7 @@
       </c>
       <c r="K464" s="1"/>
     </row>
-    <row r="465" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>463</v>
       </c>
@@ -18167,7 +18168,7 @@
       </c>
       <c r="K465" s="1"/>
     </row>
-    <row r="466" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>464</v>
       </c>
@@ -18195,7 +18196,7 @@
       </c>
       <c r="K466" s="1"/>
     </row>
-    <row r="467" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>465</v>
       </c>
@@ -18223,7 +18224,7 @@
       </c>
       <c r="K467" s="1"/>
     </row>
-    <row r="468" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>466</v>
       </c>
@@ -18251,7 +18252,7 @@
       </c>
       <c r="K468" s="1"/>
     </row>
-    <row r="469" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>467</v>
       </c>
@@ -18279,7 +18280,7 @@
       </c>
       <c r="K469" s="1"/>
     </row>
-    <row r="470" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>468</v>
       </c>
@@ -18307,7 +18308,7 @@
       </c>
       <c r="K470" s="1"/>
     </row>
-    <row r="471" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>469</v>
       </c>
@@ -18335,7 +18336,7 @@
       </c>
       <c r="K471" s="1"/>
     </row>
-    <row r="472" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>470</v>
       </c>
@@ -18363,7 +18364,7 @@
       </c>
       <c r="K472" s="1"/>
     </row>
-    <row r="473" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>471</v>
       </c>
@@ -18391,7 +18392,7 @@
       </c>
       <c r="K473" s="1"/>
     </row>
-    <row r="474" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>472</v>
       </c>
@@ -18419,7 +18420,7 @@
       </c>
       <c r="K474" s="1"/>
     </row>
-    <row r="475" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>473</v>
       </c>
@@ -18447,7 +18448,7 @@
       </c>
       <c r="K475" s="1"/>
     </row>
-    <row r="476" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>474</v>
       </c>
@@ -18475,7 +18476,7 @@
       </c>
       <c r="K476" s="1"/>
     </row>
-    <row r="477" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>475</v>
       </c>
@@ -18503,7 +18504,7 @@
       </c>
       <c r="K477" s="1"/>
     </row>
-    <row r="478" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>476</v>
       </c>
@@ -18531,7 +18532,7 @@
       </c>
       <c r="K478" s="1"/>
     </row>
-    <row r="479" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>477</v>
       </c>
@@ -18559,7 +18560,7 @@
       </c>
       <c r="K479" s="1"/>
     </row>
-    <row r="480" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>478</v>
       </c>
@@ -18587,7 +18588,7 @@
       </c>
       <c r="K480" s="1"/>
     </row>
-    <row r="481" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>479</v>
       </c>
@@ -18615,7 +18616,7 @@
       </c>
       <c r="K481" s="1"/>
     </row>
-    <row r="482" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>480</v>
       </c>
@@ -18643,7 +18644,7 @@
       </c>
       <c r="K482" s="1"/>
     </row>
-    <row r="483" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>481</v>
       </c>
@@ -18671,7 +18672,7 @@
       </c>
       <c r="K483" s="1"/>
     </row>
-    <row r="484" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>482</v>
       </c>
@@ -18699,7 +18700,7 @@
       </c>
       <c r="K484" s="1"/>
     </row>
-    <row r="485" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>483</v>
       </c>
@@ -18727,7 +18728,7 @@
       </c>
       <c r="K485" s="1"/>
     </row>
-    <row r="486" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>484</v>
       </c>
@@ -18755,7 +18756,7 @@
       </c>
       <c r="K486" s="1"/>
     </row>
-    <row r="487" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>485</v>
       </c>
@@ -18783,7 +18784,7 @@
       </c>
       <c r="K487" s="1"/>
     </row>
-    <row r="488" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>486</v>
       </c>
@@ -18811,7 +18812,7 @@
       </c>
       <c r="K488" s="1"/>
     </row>
-    <row r="489" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>487</v>
       </c>
@@ -18839,7 +18840,7 @@
       </c>
       <c r="K489" s="1"/>
     </row>
-    <row r="490" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>488</v>
       </c>
@@ -18867,7 +18868,7 @@
       </c>
       <c r="K490" s="1"/>
     </row>
-    <row r="491" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>489</v>
       </c>
@@ -18895,7 +18896,7 @@
       </c>
       <c r="K491" s="1"/>
     </row>
-    <row r="492" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>490</v>
       </c>
@@ -18923,7 +18924,7 @@
       </c>
       <c r="K492" s="1"/>
     </row>
-    <row r="493" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>491</v>
       </c>
@@ -18951,7 +18952,7 @@
       </c>
       <c r="K493" s="1"/>
     </row>
-    <row r="494" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>492</v>
       </c>
@@ -19011,7 +19012,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>494</v>
       </c>
@@ -19039,7 +19040,7 @@
       </c>
       <c r="K496" s="1"/>
     </row>
-    <row r="497" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>495</v>
       </c>
@@ -19067,7 +19068,7 @@
       </c>
       <c r="K497" s="1"/>
     </row>
-    <row r="498" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>496</v>
       </c>
@@ -19095,7 +19096,7 @@
       </c>
       <c r="K498" s="1"/>
     </row>
-    <row r="499" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>497</v>
       </c>
@@ -19123,7 +19124,7 @@
       </c>
       <c r="K499" s="1"/>
     </row>
-    <row r="500" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>498</v>
       </c>
@@ -19187,7 +19188,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>500</v>
       </c>
@@ -19219,7 +19220,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>501</v>
       </c>
@@ -19251,7 +19252,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>502</v>
       </c>
@@ -19279,7 +19280,7 @@
       </c>
       <c r="K504" s="1"/>
     </row>
-    <row r="505" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>503</v>
       </c>
@@ -19307,7 +19308,7 @@
       </c>
       <c r="K505" s="1"/>
     </row>
-    <row r="506" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>504</v>
       </c>
@@ -19335,7 +19336,7 @@
       </c>
       <c r="K506" s="1"/>
     </row>
-    <row r="507" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>505</v>
       </c>
@@ -19363,7 +19364,7 @@
       </c>
       <c r="K507" s="1"/>
     </row>
-    <row r="508" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>506</v>
       </c>
@@ -19391,7 +19392,7 @@
       </c>
       <c r="K508" s="1"/>
     </row>
-    <row r="509" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>507</v>
       </c>
@@ -19419,7 +19420,7 @@
       </c>
       <c r="K509" s="1"/>
     </row>
-    <row r="510" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>508</v>
       </c>
@@ -19447,7 +19448,7 @@
       </c>
       <c r="K510" s="1"/>
     </row>
-    <row r="511" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>509</v>
       </c>
@@ -19475,7 +19476,7 @@
       </c>
       <c r="K511" s="1"/>
     </row>
-    <row r="512" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>510</v>
       </c>
@@ -19503,7 +19504,7 @@
       </c>
       <c r="K512" s="1"/>
     </row>
-    <row r="513" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>511</v>
       </c>
@@ -19531,7 +19532,7 @@
       </c>
       <c r="K513" s="1"/>
     </row>
-    <row r="514" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>512</v>
       </c>
@@ -19559,7 +19560,7 @@
       </c>
       <c r="K514" s="1"/>
     </row>
-    <row r="515" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>513</v>
       </c>
@@ -19587,7 +19588,7 @@
       </c>
       <c r="K515" s="1"/>
     </row>
-    <row r="516" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>514</v>
       </c>
@@ -19615,7 +19616,7 @@
       </c>
       <c r="K516" s="1"/>
     </row>
-    <row r="517" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>515</v>
       </c>
@@ -19643,7 +19644,7 @@
       </c>
       <c r="K517" s="1"/>
     </row>
-    <row r="518" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>516</v>
       </c>
@@ -19671,7 +19672,7 @@
       </c>
       <c r="K518" s="1"/>
     </row>
-    <row r="519" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>517</v>
       </c>
@@ -19699,7 +19700,7 @@
       </c>
       <c r="K519" s="1"/>
     </row>
-    <row r="520" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>518</v>
       </c>
@@ -19727,7 +19728,7 @@
       </c>
       <c r="K520" s="1"/>
     </row>
-    <row r="521" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>519</v>
       </c>
@@ -19755,7 +19756,7 @@
       </c>
       <c r="K521" s="1"/>
     </row>
-    <row r="522" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>520</v>
       </c>
@@ -19783,7 +19784,7 @@
       </c>
       <c r="K522" s="1"/>
     </row>
-    <row r="523" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>521</v>
       </c>
@@ -19811,7 +19812,7 @@
       </c>
       <c r="K523" s="1"/>
     </row>
-    <row r="524" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>522</v>
       </c>
@@ -19839,7 +19840,7 @@
       </c>
       <c r="K524" s="1"/>
     </row>
-    <row r="525" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>523</v>
       </c>
@@ -19867,7 +19868,7 @@
       </c>
       <c r="K525" s="1"/>
     </row>
-    <row r="526" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>524</v>
       </c>
@@ -19895,7 +19896,7 @@
       </c>
       <c r="K526" s="1"/>
     </row>
-    <row r="527" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>525</v>
       </c>
@@ -19923,7 +19924,7 @@
       </c>
       <c r="K527" s="1"/>
     </row>
-    <row r="528" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>526</v>
       </c>
@@ -19951,7 +19952,7 @@
       </c>
       <c r="K528" s="1"/>
     </row>
-    <row r="529" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>527</v>
       </c>
@@ -19979,7 +19980,7 @@
       </c>
       <c r="K529" s="1"/>
     </row>
-    <row r="530" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>528</v>
       </c>
@@ -20007,7 +20008,7 @@
       </c>
       <c r="K530" s="1"/>
     </row>
-    <row r="531" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>529</v>
       </c>
@@ -20035,7 +20036,7 @@
       </c>
       <c r="K531" s="1"/>
     </row>
-    <row r="532" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>530</v>
       </c>
@@ -20063,7 +20064,7 @@
       </c>
       <c r="K532" s="1"/>
     </row>
-    <row r="533" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>531</v>
       </c>
@@ -20091,7 +20092,7 @@
       </c>
       <c r="K533" s="1"/>
     </row>
-    <row r="534" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>532</v>
       </c>
@@ -20119,7 +20120,7 @@
       </c>
       <c r="K534" s="1"/>
     </row>
-    <row r="535" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>533</v>
       </c>
@@ -20147,7 +20148,7 @@
       </c>
       <c r="K535" s="1"/>
     </row>
-    <row r="536" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>534</v>
       </c>
@@ -20175,7 +20176,7 @@
       </c>
       <c r="K536" s="1"/>
     </row>
-    <row r="537" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>535</v>
       </c>
@@ -20203,7 +20204,7 @@
       </c>
       <c r="K537" s="1"/>
     </row>
-    <row r="538" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>536</v>
       </c>
@@ -20231,7 +20232,7 @@
       </c>
       <c r="K538" s="1"/>
     </row>
-    <row r="539" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>537</v>
       </c>
@@ -20259,7 +20260,7 @@
       </c>
       <c r="K539" s="1"/>
     </row>
-    <row r="540" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>538</v>
       </c>
@@ -20287,7 +20288,7 @@
       </c>
       <c r="K540" s="1"/>
     </row>
-    <row r="541" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>539</v>
       </c>
@@ -20315,7 +20316,7 @@
       </c>
       <c r="K541" s="1"/>
     </row>
-    <row r="542" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>540</v>
       </c>
@@ -20343,7 +20344,7 @@
       </c>
       <c r="K542" s="1"/>
     </row>
-    <row r="543" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>541</v>
       </c>
@@ -20371,7 +20372,7 @@
       </c>
       <c r="K543" s="1"/>
     </row>
-    <row r="544" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>542</v>
       </c>
@@ -20399,7 +20400,7 @@
       </c>
       <c r="K544" s="1"/>
     </row>
-    <row r="545" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>543</v>
       </c>
@@ -20429,7 +20430,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>544</v>
       </c>
@@ -20459,7 +20460,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>545</v>
       </c>
@@ -20489,7 +20490,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>546</v>
       </c>
@@ -20519,7 +20520,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>547</v>
       </c>
@@ -20549,7 +20550,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>548</v>
       </c>
@@ -20581,7 +20582,7 @@
       </c>
       <c r="K550" s="1"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>549</v>
       </c>
@@ -20613,7 +20614,7 @@
       </c>
       <c r="K551" s="1"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>550</v>
       </c>
@@ -20645,7 +20646,7 @@
       </c>
       <c r="K552" s="1"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>551</v>
       </c>
@@ -20677,7 +20678,7 @@
       </c>
       <c r="K553" s="1"/>
     </row>
-    <row r="554" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>552</v>
       </c>
@@ -20705,7 +20706,7 @@
       </c>
       <c r="K554" s="1"/>
     </row>
-    <row r="555" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>553</v>
       </c>
@@ -20733,7 +20734,7 @@
       </c>
       <c r="K555" s="1"/>
     </row>
-    <row r="556" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>554</v>
       </c>
@@ -20761,7 +20762,7 @@
       </c>
       <c r="K556" s="1"/>
     </row>
-    <row r="557" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>555</v>
       </c>
@@ -20789,7 +20790,7 @@
       </c>
       <c r="K557" s="1"/>
     </row>
-    <row r="558" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>556</v>
       </c>
@@ -20817,7 +20818,7 @@
       </c>
       <c r="K558" s="1"/>
     </row>
-    <row r="559" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>557</v>
       </c>
@@ -20845,7 +20846,7 @@
       </c>
       <c r="K559" s="1"/>
     </row>
-    <row r="560" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>558</v>
       </c>
@@ -20873,7 +20874,7 @@
       </c>
       <c r="K560" s="1"/>
     </row>
-    <row r="561" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>559</v>
       </c>
@@ -20901,7 +20902,7 @@
       </c>
       <c r="K561" s="1"/>
     </row>
-    <row r="562" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>560</v>
       </c>
@@ -20929,7 +20930,7 @@
       </c>
       <c r="K562" s="1"/>
     </row>
-    <row r="563" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>561</v>
       </c>
@@ -20957,7 +20958,7 @@
       </c>
       <c r="K563" s="1"/>
     </row>
-    <row r="564" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>562</v>
       </c>
@@ -20985,7 +20986,7 @@
       </c>
       <c r="K564" s="1"/>
     </row>
-    <row r="565" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>563</v>
       </c>
@@ -21013,7 +21014,7 @@
       </c>
       <c r="K565" s="1"/>
     </row>
-    <row r="566" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>564</v>
       </c>
@@ -21041,7 +21042,7 @@
       </c>
       <c r="K566" s="1"/>
     </row>
-    <row r="567" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>565</v>
       </c>
@@ -21069,7 +21070,7 @@
       </c>
       <c r="K567" s="1"/>
     </row>
-    <row r="568" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>566</v>
       </c>
@@ -21097,7 +21098,7 @@
       </c>
       <c r="K568" s="1"/>
     </row>
-    <row r="569" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>567</v>
       </c>
@@ -21125,7 +21126,7 @@
       </c>
       <c r="K569" s="1"/>
     </row>
-    <row r="570" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>568</v>
       </c>
@@ -21153,7 +21154,7 @@
       </c>
       <c r="K570" s="1"/>
     </row>
-    <row r="571" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>569</v>
       </c>
@@ -21181,7 +21182,7 @@
       </c>
       <c r="K571" s="1"/>
     </row>
-    <row r="572" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>570</v>
       </c>
@@ -21209,7 +21210,7 @@
       </c>
       <c r="K572" s="1"/>
     </row>
-    <row r="573" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>571</v>
       </c>
@@ -21237,7 +21238,7 @@
       </c>
       <c r="K573" s="1"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>572</v>
       </c>
@@ -21265,7 +21266,7 @@
       </c>
       <c r="K574" s="1"/>
     </row>
-    <row r="575" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>573</v>
       </c>
@@ -21293,7 +21294,7 @@
       </c>
       <c r="K575" s="1"/>
     </row>
-    <row r="576" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>574</v>
       </c>
@@ -21321,7 +21322,7 @@
       </c>
       <c r="K576" s="1"/>
     </row>
-    <row r="577" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>575</v>
       </c>
@@ -21349,7 +21350,7 @@
       </c>
       <c r="K577" s="1"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>576</v>
       </c>
@@ -21377,7 +21378,7 @@
       </c>
       <c r="K578" s="1"/>
     </row>
-    <row r="579" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>577</v>
       </c>
@@ -21405,7 +21406,7 @@
       </c>
       <c r="K579" s="1"/>
     </row>
-    <row r="580" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>578</v>
       </c>
@@ -21433,7 +21434,7 @@
       </c>
       <c r="K580" s="1"/>
     </row>
-    <row r="581" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>579</v>
       </c>
@@ -21461,7 +21462,7 @@
       </c>
       <c r="K581" s="1"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>580</v>
       </c>
@@ -21489,7 +21490,7 @@
       </c>
       <c r="K582" s="1"/>
     </row>
-    <row r="583" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>581</v>
       </c>
@@ -21517,7 +21518,7 @@
       </c>
       <c r="K583" s="1"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>582</v>
       </c>
@@ -21545,7 +21546,7 @@
       </c>
       <c r="K584" s="1"/>
     </row>
-    <row r="585" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>583</v>
       </c>
@@ -21573,7 +21574,7 @@
       </c>
       <c r="K585" s="1"/>
     </row>
-    <row r="586" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>584</v>
       </c>
@@ -21601,7 +21602,7 @@
       </c>
       <c r="K586" s="1"/>
     </row>
-    <row r="587" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>585</v>
       </c>
@@ -21629,7 +21630,7 @@
       </c>
       <c r="K587" s="1"/>
     </row>
-    <row r="588" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>586</v>
       </c>
@@ -21657,7 +21658,7 @@
       </c>
       <c r="K588" s="1"/>
     </row>
-    <row r="589" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>587</v>
       </c>
@@ -21685,7 +21686,7 @@
       </c>
       <c r="K589" s="1"/>
     </row>
-    <row r="590" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>588</v>
       </c>
@@ -21713,7 +21714,7 @@
       </c>
       <c r="K590" s="1"/>
     </row>
-    <row r="591" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>589</v>
       </c>
@@ -21741,7 +21742,7 @@
       </c>
       <c r="K591" s="1"/>
     </row>
-    <row r="592" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>590</v>
       </c>
@@ -21769,7 +21770,7 @@
       </c>
       <c r="K592" s="1"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>591</v>
       </c>
@@ -21797,7 +21798,7 @@
       </c>
       <c r="K593" s="1"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>592</v>
       </c>
@@ -21825,7 +21826,7 @@
       </c>
       <c r="K594" s="1"/>
     </row>
-    <row r="595" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>593</v>
       </c>
@@ -21853,7 +21854,7 @@
       </c>
       <c r="K595" s="1"/>
     </row>
-    <row r="596" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>594</v>
       </c>
@@ -21881,7 +21882,7 @@
       </c>
       <c r="K596" s="1"/>
     </row>
-    <row r="597" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>595</v>
       </c>
@@ -21909,7 +21910,7 @@
       </c>
       <c r="K597" s="1"/>
     </row>
-    <row r="598" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>596</v>
       </c>
@@ -21937,7 +21938,7 @@
       </c>
       <c r="K598" s="1"/>
     </row>
-    <row r="599" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>597</v>
       </c>
@@ -21965,7 +21966,7 @@
       </c>
       <c r="K599" s="1"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>598</v>
       </c>
@@ -21993,7 +21994,7 @@
       </c>
       <c r="K600" s="1"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>599</v>
       </c>
@@ -22021,7 +22022,7 @@
       </c>
       <c r="K601" s="1"/>
     </row>
-    <row r="602" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>600</v>
       </c>
@@ -22049,7 +22050,7 @@
       </c>
       <c r="K602" s="1"/>
     </row>
-    <row r="603" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>601</v>
       </c>
@@ -22077,7 +22078,7 @@
       </c>
       <c r="K603" s="1"/>
     </row>
-    <row r="604" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>602</v>
       </c>
@@ -22105,7 +22106,7 @@
       </c>
       <c r="K604" s="1"/>
     </row>
-    <row r="605" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>603</v>
       </c>
@@ -22133,7 +22134,7 @@
       </c>
       <c r="K605" s="1"/>
     </row>
-    <row r="606" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>604</v>
       </c>
@@ -22163,7 +22164,7 @@
       </c>
       <c r="K606" s="1"/>
     </row>
-    <row r="607" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>605</v>
       </c>
@@ -22193,7 +22194,7 @@
       </c>
       <c r="K607" s="1"/>
     </row>
-    <row r="608" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>606</v>
       </c>
@@ -22221,7 +22222,7 @@
       </c>
       <c r="K608" s="1"/>
     </row>
-    <row r="609" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>607</v>
       </c>
@@ -22249,7 +22250,7 @@
       </c>
       <c r="K609" s="1"/>
     </row>
-    <row r="610" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>608</v>
       </c>
@@ -22277,7 +22278,7 @@
       </c>
       <c r="K610" s="1"/>
     </row>
-    <row r="611" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>609</v>
       </c>
@@ -22307,7 +22308,7 @@
       </c>
       <c r="K611" s="1"/>
     </row>
-    <row r="612" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>610</v>
       </c>
@@ -22335,7 +22336,7 @@
       </c>
       <c r="K612" s="1"/>
     </row>
-    <row r="613" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>611</v>
       </c>
@@ -22363,7 +22364,7 @@
       </c>
       <c r="K613" s="1"/>
     </row>
-    <row r="614" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>612</v>
       </c>
@@ -22391,7 +22392,7 @@
       </c>
       <c r="K614" s="1"/>
     </row>
-    <row r="615" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>613</v>
       </c>
@@ -22419,7 +22420,7 @@
       </c>
       <c r="K615" s="1"/>
     </row>
-    <row r="616" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>614</v>
       </c>
@@ -22447,7 +22448,7 @@
       </c>
       <c r="K616" s="1"/>
     </row>
-    <row r="617" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>615</v>
       </c>
@@ -22475,7 +22476,7 @@
       </c>
       <c r="K617" s="1"/>
     </row>
-    <row r="618" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>616</v>
       </c>
@@ -22503,7 +22504,7 @@
       </c>
       <c r="K618" s="1"/>
     </row>
-    <row r="619" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>617</v>
       </c>
@@ -22531,7 +22532,7 @@
       </c>
       <c r="K619" s="1"/>
     </row>
-    <row r="620" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>618</v>
       </c>
@@ -22559,7 +22560,7 @@
       </c>
       <c r="K620" s="1"/>
     </row>
-    <row r="621" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>619</v>
       </c>
@@ -22587,7 +22588,7 @@
       </c>
       <c r="K621" s="1"/>
     </row>
-    <row r="622" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>620</v>
       </c>
@@ -22615,7 +22616,7 @@
       </c>
       <c r="K622" s="1"/>
     </row>
-    <row r="623" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>621</v>
       </c>
@@ -22643,7 +22644,7 @@
       </c>
       <c r="K623" s="1"/>
     </row>
-    <row r="624" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>622</v>
       </c>
@@ -22671,7 +22672,7 @@
       </c>
       <c r="K624" s="1"/>
     </row>
-    <row r="625" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>623</v>
       </c>
@@ -22699,7 +22700,7 @@
       </c>
       <c r="K625" s="1"/>
     </row>
-    <row r="626" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>624</v>
       </c>
@@ -22727,7 +22728,7 @@
       </c>
       <c r="K626" s="1"/>
     </row>
-    <row r="627" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>625</v>
       </c>
@@ -22755,7 +22756,7 @@
       </c>
       <c r="K627" s="1"/>
     </row>
-    <row r="628" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>626</v>
       </c>
@@ -22783,7 +22784,7 @@
       </c>
       <c r="K628" s="1"/>
     </row>
-    <row r="629" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>627</v>
       </c>
@@ -22811,7 +22812,7 @@
       </c>
       <c r="K629" s="1"/>
     </row>
-    <row r="630" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>628</v>
       </c>
@@ -22839,7 +22840,7 @@
       </c>
       <c r="K630" s="1"/>
     </row>
-    <row r="631" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>629</v>
       </c>
@@ -22867,7 +22868,7 @@
       </c>
       <c r="K631" s="1"/>
     </row>
-    <row r="632" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>630</v>
       </c>
@@ -22895,7 +22896,7 @@
       </c>
       <c r="K632" s="1"/>
     </row>
-    <row r="633" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>631</v>
       </c>
@@ -22923,7 +22924,7 @@
       </c>
       <c r="K633" s="1"/>
     </row>
-    <row r="634" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>632</v>
       </c>
@@ -22951,7 +22952,7 @@
       </c>
       <c r="K634" s="1"/>
     </row>
-    <row r="635" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>633</v>
       </c>
@@ -22979,7 +22980,7 @@
       </c>
       <c r="K635" s="1"/>
     </row>
-    <row r="636" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>634</v>
       </c>
@@ -23007,7 +23008,7 @@
       </c>
       <c r="K636" s="1"/>
     </row>
-    <row r="637" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>635</v>
       </c>
@@ -23035,7 +23036,7 @@
       </c>
       <c r="K637" s="1"/>
     </row>
-    <row r="638" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>636</v>
       </c>
@@ -23063,7 +23064,7 @@
       </c>
       <c r="K638" s="1"/>
     </row>
-    <row r="639" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>637</v>
       </c>
@@ -23091,7 +23092,7 @@
       </c>
       <c r="K639" s="1"/>
     </row>
-    <row r="640" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>638</v>
       </c>
@@ -23119,7 +23120,7 @@
       </c>
       <c r="K640" s="1"/>
     </row>
-    <row r="641" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>639</v>
       </c>
@@ -23147,7 +23148,7 @@
       </c>
       <c r="K641" s="1"/>
     </row>
-    <row r="642" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>640</v>
       </c>
@@ -23175,7 +23176,7 @@
       </c>
       <c r="K642" s="1"/>
     </row>
-    <row r="643" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>641</v>
       </c>
@@ -23203,7 +23204,7 @@
       </c>
       <c r="K643" s="1"/>
     </row>
-    <row r="644" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>642</v>
       </c>
@@ -23231,7 +23232,7 @@
       </c>
       <c r="K644" s="1"/>
     </row>
-    <row r="645" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>643</v>
       </c>
@@ -23259,7 +23260,7 @@
       </c>
       <c r="K645" s="1"/>
     </row>
-    <row r="646" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>644</v>
       </c>
@@ -23287,7 +23288,7 @@
       </c>
       <c r="K646" s="1"/>
     </row>
-    <row r="647" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>645</v>
       </c>
@@ -23315,7 +23316,7 @@
       </c>
       <c r="K647" s="1"/>
     </row>
-    <row r="648" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>646</v>
       </c>
@@ -23343,7 +23344,7 @@
       </c>
       <c r="K648" s="1"/>
     </row>
-    <row r="649" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>647</v>
       </c>
@@ -23371,7 +23372,7 @@
       </c>
       <c r="K649" s="1"/>
     </row>
-    <row r="650" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>648</v>
       </c>
@@ -23399,7 +23400,7 @@
       </c>
       <c r="K650" s="1"/>
     </row>
-    <row r="651" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>649</v>
       </c>
@@ -23427,7 +23428,7 @@
       </c>
       <c r="K651" s="1"/>
     </row>
-    <row r="652" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>650</v>
       </c>
@@ -23455,7 +23456,7 @@
       </c>
       <c r="K652" s="1"/>
     </row>
-    <row r="653" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>651</v>
       </c>
@@ -23483,7 +23484,7 @@
       </c>
       <c r="K653" s="1"/>
     </row>
-    <row r="654" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>652</v>
       </c>
@@ -23511,7 +23512,7 @@
       </c>
       <c r="K654" s="1"/>
     </row>
-    <row r="655" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>653</v>
       </c>
@@ -23539,7 +23540,7 @@
       </c>
       <c r="K655" s="1"/>
     </row>
-    <row r="656" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>654</v>
       </c>
@@ -23567,7 +23568,7 @@
       </c>
       <c r="K656" s="1"/>
     </row>
-    <row r="657" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>655</v>
       </c>
@@ -23595,7 +23596,7 @@
       </c>
       <c r="K657" s="1"/>
     </row>
-    <row r="658" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>656</v>
       </c>
@@ -23623,7 +23624,7 @@
       </c>
       <c r="K658" s="1"/>
     </row>
-    <row r="659" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>657</v>
       </c>
@@ -23651,7 +23652,7 @@
       </c>
       <c r="K659" s="1"/>
     </row>
-    <row r="660" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>658</v>
       </c>
@@ -23679,7 +23680,7 @@
       </c>
       <c r="K660" s="1"/>
     </row>
-    <row r="661" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>659</v>
       </c>
@@ -23707,7 +23708,7 @@
       </c>
       <c r="K661" s="1"/>
     </row>
-    <row r="662" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>660</v>
       </c>
@@ -23735,7 +23736,7 @@
       </c>
       <c r="K662" s="1"/>
     </row>
-    <row r="663" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>661</v>
       </c>
@@ -23763,7 +23764,7 @@
       </c>
       <c r="K663" s="1"/>
     </row>
-    <row r="664" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>662</v>
       </c>
@@ -23791,7 +23792,7 @@
       </c>
       <c r="K664" s="1"/>
     </row>
-    <row r="665" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>663</v>
       </c>
@@ -23819,7 +23820,7 @@
       </c>
       <c r="K665" s="1"/>
     </row>
-    <row r="666" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>664</v>
       </c>
@@ -23847,7 +23848,7 @@
       </c>
       <c r="K666" s="1"/>
     </row>
-    <row r="667" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>665</v>
       </c>
@@ -23875,7 +23876,7 @@
       </c>
       <c r="K667" s="1"/>
     </row>
-    <row r="668" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>666</v>
       </c>
@@ -23903,7 +23904,7 @@
       </c>
       <c r="K668" s="1"/>
     </row>
-    <row r="669" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>667</v>
       </c>
@@ -23931,7 +23932,7 @@
       </c>
       <c r="K669" s="1"/>
     </row>
-    <row r="670" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>668</v>
       </c>
@@ -23959,7 +23960,7 @@
       </c>
       <c r="K670" s="1"/>
     </row>
-    <row r="671" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>669</v>
       </c>
@@ -23987,7 +23988,7 @@
       </c>
       <c r="K671" s="1"/>
     </row>
-    <row r="672" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>670</v>
       </c>
@@ -24015,7 +24016,7 @@
       </c>
       <c r="K672" s="1"/>
     </row>
-    <row r="673" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>671</v>
       </c>
@@ -24043,7 +24044,7 @@
       </c>
       <c r="K673" s="1"/>
     </row>
-    <row r="674" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>672</v>
       </c>
@@ -24071,7 +24072,7 @@
       </c>
       <c r="K674" s="1"/>
     </row>
-    <row r="675" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>673</v>
       </c>
@@ -24099,7 +24100,7 @@
       </c>
       <c r="K675" s="1"/>
     </row>
-    <row r="676" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>674</v>
       </c>
@@ -24127,7 +24128,7 @@
       </c>
       <c r="K676" s="1"/>
     </row>
-    <row r="677" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>675</v>
       </c>
@@ -24155,7 +24156,7 @@
       </c>
       <c r="K677" s="1"/>
     </row>
-    <row r="678" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>676</v>
       </c>
@@ -24183,7 +24184,7 @@
       </c>
       <c r="K678" s="1"/>
     </row>
-    <row r="679" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>677</v>
       </c>
@@ -24211,7 +24212,7 @@
       </c>
       <c r="K679" s="1"/>
     </row>
-    <row r="680" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>678</v>
       </c>
@@ -24239,7 +24240,7 @@
       </c>
       <c r="K680" s="1"/>
     </row>
-    <row r="681" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>679</v>
       </c>
@@ -24267,7 +24268,7 @@
       </c>
       <c r="K681" s="1"/>
     </row>
-    <row r="682" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>680</v>
       </c>
@@ -24295,7 +24296,7 @@
       </c>
       <c r="K682" s="1"/>
     </row>
-    <row r="683" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>681</v>
       </c>
@@ -24323,7 +24324,7 @@
       </c>
       <c r="K683" s="1"/>
     </row>
-    <row r="684" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>682</v>
       </c>
@@ -24351,7 +24352,7 @@
       </c>
       <c r="K684" s="1"/>
     </row>
-    <row r="685" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>683</v>
       </c>
@@ -24379,7 +24380,7 @@
       </c>
       <c r="K685" s="1"/>
     </row>
-    <row r="686" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>684</v>
       </c>
@@ -24407,7 +24408,7 @@
       </c>
       <c r="K686" s="1"/>
     </row>
-    <row r="687" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>685</v>
       </c>
@@ -24435,7 +24436,7 @@
       </c>
       <c r="K687" s="1"/>
     </row>
-    <row r="688" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>686</v>
       </c>
@@ -24463,7 +24464,7 @@
       </c>
       <c r="K688" s="1"/>
     </row>
-    <row r="689" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>687</v>
       </c>
@@ -24521,7 +24522,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>689</v>
       </c>
@@ -24549,7 +24550,7 @@
       </c>
       <c r="K691" s="1"/>
     </row>
-    <row r="692" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>690</v>
       </c>
@@ -24577,7 +24578,7 @@
       </c>
       <c r="K692" s="1"/>
     </row>
-    <row r="693" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>691</v>
       </c>
@@ -24605,7 +24606,7 @@
       </c>
       <c r="K693" s="1"/>
     </row>
-    <row r="694" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>692</v>
       </c>
@@ -24633,7 +24634,7 @@
       </c>
       <c r="K694" s="1"/>
     </row>
-    <row r="695" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>693</v>
       </c>
@@ -24661,7 +24662,7 @@
       </c>
       <c r="K695" s="1"/>
     </row>
-    <row r="696" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>694</v>
       </c>
@@ -24689,7 +24690,7 @@
       </c>
       <c r="K696" s="1"/>
     </row>
-    <row r="697" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>695</v>
       </c>
@@ -24717,7 +24718,7 @@
       </c>
       <c r="K697" s="1"/>
     </row>
-    <row r="698" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>696</v>
       </c>
@@ -24745,7 +24746,7 @@
       </c>
       <c r="K698" s="1"/>
     </row>
-    <row r="699" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>697</v>
       </c>
@@ -24773,7 +24774,7 @@
       </c>
       <c r="K699" s="1"/>
     </row>
-    <row r="700" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>698</v>
       </c>
@@ -24801,7 +24802,7 @@
       </c>
       <c r="K700" s="1"/>
     </row>
-    <row r="701" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>699</v>
       </c>
@@ -24829,7 +24830,7 @@
       </c>
       <c r="K701" s="1"/>
     </row>
-    <row r="702" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>700</v>
       </c>
@@ -24857,7 +24858,7 @@
       </c>
       <c r="K702" s="1"/>
     </row>
-    <row r="703" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>701</v>
       </c>
@@ -24885,7 +24886,7 @@
       </c>
       <c r="K703" s="1"/>
     </row>
-    <row r="704" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>702</v>
       </c>
@@ -24913,7 +24914,7 @@
       </c>
       <c r="K704" s="1"/>
     </row>
-    <row r="705" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>703</v>
       </c>
@@ -24941,7 +24942,7 @@
       </c>
       <c r="K705" s="1"/>
     </row>
-    <row r="706" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>704</v>
       </c>
@@ -24969,7 +24970,7 @@
       </c>
       <c r="K706" s="1"/>
     </row>
-    <row r="707" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>705</v>
       </c>
@@ -24997,7 +24998,7 @@
       </c>
       <c r="K707" s="1"/>
     </row>
-    <row r="708" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>706</v>
       </c>
@@ -25025,7 +25026,7 @@
       </c>
       <c r="K708" s="1"/>
     </row>
-    <row r="709" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>707</v>
       </c>
@@ -25053,7 +25054,7 @@
       </c>
       <c r="K709" s="1"/>
     </row>
-    <row r="710" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>708</v>
       </c>
@@ -25081,7 +25082,7 @@
       </c>
       <c r="K710" s="1"/>
     </row>
-    <row r="711" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>709</v>
       </c>
@@ -25109,7 +25110,7 @@
       </c>
       <c r="K711" s="1"/>
     </row>
-    <row r="712" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>710</v>
       </c>
@@ -25137,7 +25138,7 @@
       </c>
       <c r="K712" s="1"/>
     </row>
-    <row r="713" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>711</v>
       </c>
@@ -25165,7 +25166,7 @@
       </c>
       <c r="K713" s="1"/>
     </row>
-    <row r="714" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>712</v>
       </c>
@@ -25193,7 +25194,7 @@
       </c>
       <c r="K714" s="1"/>
     </row>
-    <row r="715" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>713</v>
       </c>
@@ -25221,7 +25222,7 @@
       </c>
       <c r="K715" s="1"/>
     </row>
-    <row r="716" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>714</v>
       </c>
@@ -25249,7 +25250,7 @@
       </c>
       <c r="K716" s="1"/>
     </row>
-    <row r="717" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>715</v>
       </c>
@@ -25277,7 +25278,7 @@
       </c>
       <c r="K717" s="1"/>
     </row>
-    <row r="718" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>716</v>
       </c>
@@ -25305,7 +25306,7 @@
       </c>
       <c r="K718" s="1"/>
     </row>
-    <row r="719" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>717</v>
       </c>
@@ -25333,7 +25334,7 @@
       </c>
       <c r="K719" s="1"/>
     </row>
-    <row r="720" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>718</v>
       </c>
@@ -25361,7 +25362,7 @@
       </c>
       <c r="K720" s="1"/>
     </row>
-    <row r="721" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>719</v>
       </c>
@@ -25689,7 +25690,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="8" t="s">
         <v>730</v>
       </c>
@@ -25721,7 +25722,7 @@
       </c>
       <c r="K732" s="8"/>
     </row>
-    <row r="733" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2" t="s">
         <v>731</v>
       </c>
@@ -25753,7 +25754,7 @@
       </c>
       <c r="K733" s="2"/>
     </row>
-    <row r="734" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="5" t="s">
         <v>732</v>
       </c>
@@ -25785,7 +25786,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="8" t="s">
         <v>733</v>
       </c>
@@ -25819,7 +25820,7 @@
       </c>
       <c r="K735" s="8"/>
     </row>
-    <row r="736" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="8" t="s">
         <v>734</v>
       </c>
@@ -25853,7 +25854,7 @@
       </c>
       <c r="K736" s="8"/>
     </row>
-    <row r="737" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="6" t="s">
         <v>735</v>
       </c>
@@ -25885,7 +25886,7 @@
       </c>
       <c r="K737" s="6"/>
     </row>
-    <row r="738" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="8" t="s">
         <v>736</v>
       </c>
@@ -25917,7 +25918,7 @@
       </c>
       <c r="K738" s="8"/>
     </row>
-    <row r="739" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2" t="s">
         <v>737</v>
       </c>
@@ -25945,7 +25946,7 @@
       </c>
       <c r="K739" s="2"/>
     </row>
-    <row r="740" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>738</v>
       </c>
@@ -25973,7 +25974,7 @@
       </c>
       <c r="K740" s="1"/>
     </row>
-    <row r="741" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>739</v>
       </c>
@@ -26001,7 +26002,7 @@
       </c>
       <c r="K741" s="1"/>
     </row>
-    <row r="742" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>740</v>
       </c>
@@ -26029,7 +26030,7 @@
       </c>
       <c r="K742" s="1"/>
     </row>
-    <row r="743" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>741</v>
       </c>
@@ -26057,7 +26058,7 @@
       </c>
       <c r="K743" s="1"/>
     </row>
-    <row r="744" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>742</v>
       </c>
@@ -26085,7 +26086,7 @@
       </c>
       <c r="K744" s="1"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>743</v>
       </c>
@@ -26119,7 +26120,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>744</v>
       </c>
@@ -26153,7 +26154,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>745</v>
       </c>
@@ -26181,7 +26182,7 @@
       </c>
       <c r="K747" s="1"/>
     </row>
-    <row r="748" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>746</v>
       </c>
@@ -26209,7 +26210,7 @@
       </c>
       <c r="K748" s="1"/>
     </row>
-    <row r="749" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>747</v>
       </c>
@@ -26237,7 +26238,7 @@
       </c>
       <c r="K749" s="1"/>
     </row>
-    <row r="750" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>748</v>
       </c>
@@ -26265,7 +26266,7 @@
       </c>
       <c r="K750" s="1"/>
     </row>
-    <row r="751" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>749</v>
       </c>
@@ -26293,7 +26294,7 @@
       </c>
       <c r="K751" s="1"/>
     </row>
-    <row r="752" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>750</v>
       </c>
@@ -26321,7 +26322,7 @@
       </c>
       <c r="K752" s="1"/>
     </row>
-    <row r="753" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>751</v>
       </c>
@@ -26349,7 +26350,7 @@
       </c>
       <c r="K753" s="1"/>
     </row>
-    <row r="754" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>752</v>
       </c>
@@ -26377,7 +26378,7 @@
       </c>
       <c r="K754" s="1"/>
     </row>
-    <row r="755" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>753</v>
       </c>
@@ -26405,7 +26406,7 @@
       </c>
       <c r="K755" s="1"/>
     </row>
-    <row r="756" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>754</v>
       </c>
@@ -26433,7 +26434,7 @@
       </c>
       <c r="K756" s="1"/>
     </row>
-    <row r="757" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>755</v>
       </c>
@@ -26461,7 +26462,7 @@
       </c>
       <c r="K757" s="1"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>756</v>
       </c>
@@ -26493,7 +26494,7 @@
       </c>
       <c r="K758" s="1"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>757</v>
       </c>
@@ -26525,7 +26526,7 @@
       </c>
       <c r="K759" s="1"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>758</v>
       </c>
@@ -26557,7 +26558,7 @@
       </c>
       <c r="K760" s="1"/>
     </row>
-    <row r="761" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>759</v>
       </c>
@@ -26585,7 +26586,7 @@
       </c>
       <c r="K761" s="1"/>
     </row>
-    <row r="762" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>760</v>
       </c>
@@ -26613,7 +26614,7 @@
       </c>
       <c r="K762" s="1"/>
     </row>
-    <row r="763" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>761</v>
       </c>
@@ -26641,7 +26642,7 @@
       </c>
       <c r="K763" s="1"/>
     </row>
-    <row r="764" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>762</v>
       </c>
@@ -26669,7 +26670,7 @@
       </c>
       <c r="K764" s="1"/>
     </row>
-    <row r="765" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>763</v>
       </c>
@@ -26697,7 +26698,7 @@
       </c>
       <c r="K765" s="1"/>
     </row>
-    <row r="766" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>764</v>
       </c>
@@ -26725,7 +26726,7 @@
       </c>
       <c r="K766" s="1"/>
     </row>
-    <row r="767" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>765</v>
       </c>
@@ -26753,7 +26754,7 @@
       </c>
       <c r="K767" s="1"/>
     </row>
-    <row r="768" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>766</v>
       </c>
@@ -26786,6 +26787,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K768">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
